--- a/data/lookup_table_strict.xlsx
+++ b/data/lookup_table_strict.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominic\DataspellProjects\ba_data_analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominic\RProjects\R\ba_data_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2ED769-59A5-4D2D-8630-043D7FB1C167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08840C45-E8D2-4904-BF27-2C1EBA894A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{97050E6A-45AA-4CF0-95A5-432DAC50CC67}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{97050E6A-45AA-4CF0-95A5-432DAC50CC67}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -168,7 +168,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -503,15 +503,15 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -534,7 +534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>15</v>
       </c>
@@ -557,7 +557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>16</v>
       </c>
@@ -580,7 +580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>17</v>
       </c>
@@ -603,7 +603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>18</v>
       </c>
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>19</v>
       </c>
@@ -649,7 +649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>20</v>
       </c>
@@ -672,7 +672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>50</v>
       </c>
@@ -695,7 +695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>51</v>
       </c>
@@ -718,18 +718,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>52</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -740,7 +752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>56</v>
       </c>
@@ -763,7 +775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>57</v>
       </c>
@@ -786,7 +798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>58</v>
       </c>
@@ -809,7 +821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>59</v>
       </c>
@@ -832,7 +844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>60</v>
       </c>
@@ -855,7 +867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>61</v>
       </c>
@@ -878,7 +890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A18">
         <v>62</v>
       </c>
@@ -901,7 +913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A19">
         <v>63</v>
       </c>
@@ -924,7 +936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A20">
         <v>64</v>
       </c>
@@ -935,7 +947,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A21">
         <v>75</v>
       </c>
@@ -958,7 +970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A22">
         <v>76</v>
       </c>

--- a/data/lookup_table_strict.xlsx
+++ b/data/lookup_table_strict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominic\RProjects\R\ba_data_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08840C45-E8D2-4904-BF27-2C1EBA894A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE48F058-F8DC-4C35-A36D-531051A7575E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{97050E6A-45AA-4CF0-95A5-432DAC50CC67}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11070" xr2:uid="{97050E6A-45AA-4CF0-95A5-432DAC50CC67}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
-    <t>LinkId</t>
-  </si>
-  <si>
     <t>NumAnswers</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>52A</t>
+  </si>
+  <si>
+    <t>linkId</t>
   </si>
 </sst>
 </file>
@@ -502,39 +502,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F37C88-F36C-4553-9B6C-C98A6F73B863}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>15</v>
       </c>
@@ -554,10 +554,10 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>16</v>
       </c>
@@ -577,10 +577,10 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>17</v>
       </c>
@@ -600,10 +600,10 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18</v>
       </c>
@@ -623,10 +623,10 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>19</v>
       </c>
@@ -646,10 +646,10 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -669,10 +669,10 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50</v>
       </c>
@@ -692,10 +692,10 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>51</v>
       </c>
@@ -715,10 +715,10 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>52</v>
       </c>
@@ -738,21 +738,21 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>56</v>
       </c>
@@ -772,10 +772,10 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>57</v>
       </c>
@@ -795,10 +795,10 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>58</v>
       </c>
@@ -818,10 +818,10 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>59</v>
       </c>
@@ -841,10 +841,10 @@
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>60</v>
       </c>
@@ -864,10 +864,10 @@
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>61</v>
       </c>
@@ -887,10 +887,10 @@
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>62</v>
       </c>
@@ -910,10 +910,10 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>63</v>
       </c>
@@ -933,10 +933,10 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>64</v>
       </c>
@@ -944,10 +944,10 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>75</v>
       </c>
@@ -967,10 +967,10 @@
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>76</v>
       </c>
@@ -978,7 +978,7 @@
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
